--- a/projeto-base-selenium/src/test/java/SISTEMA_INTEGRADO/testeintegrado/TesteIntegrado.xlsx
+++ b/projeto-base-selenium/src/test/java/SISTEMA_INTEGRADO/testeintegrado/TesteIntegrado.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\ws_robo\projeto-base-selenium\src\test\java\SISTEMA_INTEGRADO\testeintegrado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipem.medeiros\Documents\02-cursos\java\base-selenio\projeto-base-selenium\src\test\java\SISTEMA_INTEGRADO\testeintegrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Processamento" sheetId="2" r:id="rId1"/>
     <sheet name="CockPit" sheetId="3" r:id="rId2"/>
     <sheet name="CarteiraDiaria" sheetId="6" r:id="rId3"/>
+    <sheet name="Movimentacao" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>modulos</t>
   </si>
@@ -137,6 +138,57 @@
   </si>
   <si>
     <t>CSV</t>
+  </si>
+  <si>
+    <t>pkMovimentacao</t>
+  </si>
+  <si>
+    <t>dataDoMovimento</t>
+  </si>
+  <si>
+    <t>fundo</t>
+  </si>
+  <si>
+    <t>modalidadeDoMovimento</t>
+  </si>
+  <si>
+    <t>subsegmentoPREVIC</t>
+  </si>
+  <si>
+    <t>dataDaAplicacao</t>
+  </si>
+  <si>
+    <t>dataDeCotizacao</t>
+  </si>
+  <si>
+    <t>liquidacaoDoMovimento</t>
+  </si>
+  <si>
+    <t>estoque</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <t>financeiro</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>__APARECE</t>
+  </si>
+  <si>
+    <t>Aplicação por Financeiro</t>
+  </si>
+  <si>
+    <t>RV1-Ações Mercado</t>
+  </si>
+  <si>
+    <t>1.000,00</t>
+  </si>
+  <si>
+    <t>__FER</t>
   </si>
 </sst>
 </file>
@@ -247,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,6 +333,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -708,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -819,4 +874,102 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>